--- a/xlsx/心理哲学_intext.xlsx
+++ b/xlsx/心理哲学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>精神哲学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_心理哲学</t>
+    <t>政策_政策_政治学_心理哲学</t>
   </si>
 </sst>
 </file>
